--- a/databases/catalog.xlsx
+++ b/databases/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosty\PycharmProjects\digitsmokestore\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361F819-08C6-401D-BCA9-6472DBEA7EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6C099-B464-4AE2-A609-147ED1214CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Производитель</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>Энергетик</t>
+  </si>
+  <si>
+    <t>⚡️Энергетик ⚡️</t>
+  </si>
+  <si>
+    <t>🍦Ванильное мороженое 🍦</t>
+  </si>
+  <si>
+    <t>🍓Клубника Киви🥝</t>
+  </si>
+  <si>
+    <t>🥤 Розовый лимонад🥤</t>
+  </si>
+  <si>
+    <t>🍑Туманы майами🍑</t>
+  </si>
+  <si>
+    <t>🍊Гранат Смородина и Лимон🍋</t>
   </si>
 </sst>
 </file>
@@ -358,16 +376,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -403,6 +421,108 @@
         <v>390</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>399</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>399</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1200</v>
+      </c>
+      <c r="D5">
+        <v>399</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1200</v>
+      </c>
+      <c r="D6">
+        <v>399</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+      <c r="D7">
+        <v>399</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1200</v>
+      </c>
+      <c r="D8">
+        <v>399</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
     </row>
